--- a/小專題規劃/天數規劃.xlsx
+++ b/小專題規劃/天數規劃.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\My-WebProject\My-WebProject\小專題規劃\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CBE96-432A-4CC9-B547-50AF30159519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070754F-077D-47FC-8079-E3996D4632C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="7440" xr2:uid="{BA4033FF-4620-419E-A216-DC37083CE4BB}"/>
   </bookViews>
@@ -82,19 +82,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>購物網頁開發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>購物車頁面開發</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班機查詢頁面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>製作報告及練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程兌換網頁開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兌換車頁面開發</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -205,13 +205,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,7 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,6 +243,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,7 +565,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -647,27 +659,27 @@
     </row>
     <row r="7" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
-        <v>5</v>
+      <c r="C8" s="8">
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -675,7 +687,7 @@
     </row>
     <row r="9" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
